--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4020.277092098899</v>
+        <v>4166.624299463036</v>
       </c>
       <c r="AB2" t="n">
-        <v>5500.72047951774</v>
+        <v>5700.959185016487</v>
       </c>
       <c r="AC2" t="n">
-        <v>4975.739437262041</v>
+        <v>5156.867641744766</v>
       </c>
       <c r="AD2" t="n">
-        <v>4020277.092098899</v>
+        <v>4166624.299463036</v>
       </c>
       <c r="AE2" t="n">
-        <v>5500720.47951774</v>
+        <v>5700959.185016487</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.453460242670602e-07</v>
+        <v>1.1940591057951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.54654947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4975739.437262041</v>
+        <v>5156867.641744766</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1877.313996828978</v>
+        <v>1974.793460883832</v>
       </c>
       <c r="AB3" t="n">
-        <v>2568.623831709716</v>
+        <v>2701.999534920009</v>
       </c>
       <c r="AC3" t="n">
-        <v>2323.477978297531</v>
+        <v>2444.124491587408</v>
       </c>
       <c r="AD3" t="n">
-        <v>1877313.996828978</v>
+        <v>1974793.460883832</v>
       </c>
       <c r="AE3" t="n">
-        <v>2568623.831709716</v>
+        <v>2701999.534920008</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020864211420144e-06</v>
+        <v>1.888866068108163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.88606770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2323477.978297531</v>
+        <v>2444124.491587407</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1517.546302696788</v>
+        <v>1590.719995887408</v>
       </c>
       <c r="AB4" t="n">
-        <v>2076.373800767568</v>
+        <v>2176.493275986483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1878.207599431243</v>
+        <v>1968.771812453831</v>
       </c>
       <c r="AD4" t="n">
-        <v>1517546.302696788</v>
+        <v>1590719.995887408</v>
       </c>
       <c r="AE4" t="n">
-        <v>2076373.800767568</v>
+        <v>2176493.275986483</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165208099371081e-06</v>
+        <v>2.155940052130042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1878207.599431243</v>
+        <v>1968771.812453831</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1354.275503937291</v>
+        <v>1427.36385627334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1852.979490905545</v>
+        <v>1952.982199002262</v>
       </c>
       <c r="AC5" t="n">
-        <v>1676.133728966568</v>
+        <v>1766.592318957217</v>
       </c>
       <c r="AD5" t="n">
-        <v>1354275.503937291</v>
+        <v>1427363.85627334</v>
       </c>
       <c r="AE5" t="n">
-        <v>1852979.490905545</v>
+        <v>1952982.199002262</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.241488148825101e-06</v>
+        <v>2.297078114837594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1676133.728966568</v>
+        <v>1766592.318957218</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1248.031142300979</v>
+        <v>1321.204745983048</v>
       </c>
       <c r="AB6" t="n">
-        <v>1707.611268144312</v>
+        <v>1807.730620893679</v>
       </c>
       <c r="AC6" t="n">
-        <v>1544.639245360085</v>
+        <v>1635.203347601447</v>
       </c>
       <c r="AD6" t="n">
-        <v>1248031.142300979</v>
+        <v>1321204.745983049</v>
       </c>
       <c r="AE6" t="n">
-        <v>1707611.268144312</v>
+        <v>1807730.620893679</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290505316466914e-06</v>
+        <v>2.387772708376718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77571614583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1544639.245360086</v>
+        <v>1635203.347601447</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1180.565140973122</v>
+        <v>1253.568152454599</v>
       </c>
       <c r="AB7" t="n">
-        <v>1615.301308737622</v>
+        <v>1715.187249712142</v>
       </c>
       <c r="AC7" t="n">
-        <v>1461.139218921328</v>
+        <v>1551.492185880039</v>
       </c>
       <c r="AD7" t="n">
-        <v>1180565.140973122</v>
+        <v>1253568.152454599</v>
       </c>
       <c r="AE7" t="n">
-        <v>1615301.308737622</v>
+        <v>1715187.249712142</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324117088564156e-06</v>
+        <v>2.449963286803546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.47623697916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1461139.218921328</v>
+        <v>1551492.185880039</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1122.480514486394</v>
+        <v>1195.483525967871</v>
       </c>
       <c r="AB8" t="n">
-        <v>1535.827360265614</v>
+        <v>1635.713301240133</v>
       </c>
       <c r="AC8" t="n">
-        <v>1389.250152549101</v>
+        <v>1479.603119507811</v>
       </c>
       <c r="AD8" t="n">
-        <v>1122480.514486394</v>
+        <v>1195483.525967871</v>
       </c>
       <c r="AE8" t="n">
-        <v>1535827.360265614</v>
+        <v>1635713.301240133</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.350259577973123e-06</v>
+        <v>2.498333736691079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2548828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1389250.152549101</v>
+        <v>1479603.119507811</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1080.120033563322</v>
+        <v>1141.098126140264</v>
       </c>
       <c r="AB9" t="n">
-        <v>1477.867881454142</v>
+        <v>1561.300797881497</v>
       </c>
       <c r="AC9" t="n">
-        <v>1336.822245048757</v>
+        <v>1412.292441031118</v>
       </c>
       <c r="AD9" t="n">
-        <v>1080120.033563322</v>
+        <v>1141098.126140264</v>
       </c>
       <c r="AE9" t="n">
-        <v>1477867.881454143</v>
+        <v>1561300.797881497</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366225169719313e-06</v>
+        <v>2.527874261443822e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.123046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1336822.245048757</v>
+        <v>1412292.441031118</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1037.970003878195</v>
+        <v>1098.948096455136</v>
       </c>
       <c r="AB10" t="n">
-        <v>1420.19635131088</v>
+        <v>1503.629267738233</v>
       </c>
       <c r="AC10" t="n">
-        <v>1284.654804799867</v>
+        <v>1360.125000782228</v>
       </c>
       <c r="AD10" t="n">
-        <v>1037970.003878194</v>
+        <v>1098948.096455136</v>
       </c>
       <c r="AE10" t="n">
-        <v>1420196.35131088</v>
+        <v>1503629.267738234</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.379763244591814e-06</v>
+        <v>2.552923244421294e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.01399739583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1284654.804799867</v>
+        <v>1360125.000782228</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1021.616689841845</v>
+        <v>1094.704952669342</v>
       </c>
       <c r="AB11" t="n">
-        <v>1397.821025589049</v>
+        <v>1497.823611216218</v>
       </c>
       <c r="AC11" t="n">
-        <v>1264.41494876096</v>
+        <v>1354.873427970383</v>
       </c>
       <c r="AD11" t="n">
-        <v>1021616.689841845</v>
+        <v>1094704.952669343</v>
       </c>
       <c r="AE11" t="n">
-        <v>1397821.025589049</v>
+        <v>1497823.611216218</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>2.557069282983083e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1264414.94876096</v>
+        <v>1354873.427970383</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1025.991727468301</v>
+        <v>1099.079990295799</v>
       </c>
       <c r="AB12" t="n">
-        <v>1403.807145082604</v>
+        <v>1503.809730709774</v>
       </c>
       <c r="AC12" t="n">
-        <v>1269.829761411623</v>
+        <v>1360.288240621045</v>
       </c>
       <c r="AD12" t="n">
-        <v>1025991.727468301</v>
+        <v>1099079.990295799</v>
       </c>
       <c r="AE12" t="n">
-        <v>1403807.145082604</v>
+        <v>1503809.730709774</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>2.557069282983083e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1269829.761411623</v>
+        <v>1360288.240621045</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2757.760195599439</v>
+        <v>2886.990347350186</v>
       </c>
       <c r="AB2" t="n">
-        <v>3773.289163412598</v>
+        <v>3950.107558269902</v>
       </c>
       <c r="AC2" t="n">
-        <v>3413.171741500959</v>
+        <v>3573.114836919251</v>
       </c>
       <c r="AD2" t="n">
-        <v>2757760.195599439</v>
+        <v>2886990.347350186</v>
       </c>
       <c r="AE2" t="n">
-        <v>3773289.163412598</v>
+        <v>3950107.558269902</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.938391463126135e-07</v>
+        <v>1.513179927971415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.80143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3413171.741500959</v>
+        <v>3573114.836919251</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1496.049444996275</v>
+        <v>1578.395429925296</v>
       </c>
       <c r="AB3" t="n">
-        <v>2046.960851687298</v>
+        <v>2159.630261115645</v>
       </c>
       <c r="AC3" t="n">
-        <v>1851.60178092986</v>
+        <v>1953.518180054876</v>
       </c>
       <c r="AD3" t="n">
-        <v>1496049.444996275</v>
+        <v>1578395.429925296</v>
       </c>
       <c r="AE3" t="n">
-        <v>2046960.851687298</v>
+        <v>2159630.261115645</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141548226094267e-06</v>
+        <v>2.175967096811553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.77115885416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1851601.78092986</v>
+        <v>1953518.180054876</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1239.043931122703</v>
+        <v>1309.540952572986</v>
       </c>
       <c r="AB4" t="n">
-        <v>1695.31456932242</v>
+        <v>1791.771704179783</v>
       </c>
       <c r="AC4" t="n">
-        <v>1533.51612621523</v>
+        <v>1620.767527500245</v>
       </c>
       <c r="AD4" t="n">
-        <v>1239043.931122703</v>
+        <v>1309540.952572986</v>
       </c>
       <c r="AE4" t="n">
-        <v>1695314.56932242</v>
+        <v>1791771.704179783</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271649373445902e-06</v>
+        <v>2.423959962485905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1533516.12621523</v>
+        <v>1620767.527500245</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1108.271673514211</v>
+        <v>1178.853946310514</v>
       </c>
       <c r="AB5" t="n">
-        <v>1516.386197197649</v>
+        <v>1612.959976707662</v>
       </c>
       <c r="AC5" t="n">
-        <v>1371.6644267985</v>
+        <v>1459.021340334227</v>
       </c>
       <c r="AD5" t="n">
-        <v>1108271.673514211</v>
+        <v>1178853.946310514</v>
       </c>
       <c r="AE5" t="n">
-        <v>1516386.197197649</v>
+        <v>1612959.976707662</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339838987425304e-06</v>
+        <v>2.553939890597332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.7333984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1371664.4267985</v>
+        <v>1459021.340334227</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1028.336595194683</v>
+        <v>1098.748275790394</v>
       </c>
       <c r="AB6" t="n">
-        <v>1407.015496554102</v>
+        <v>1503.355864289267</v>
       </c>
       <c r="AC6" t="n">
-        <v>1272.73191232163</v>
+        <v>1359.877690574706</v>
       </c>
       <c r="AD6" t="n">
-        <v>1028336.595194682</v>
+        <v>1098748.275790394</v>
       </c>
       <c r="AE6" t="n">
-        <v>1407015.496554102</v>
+        <v>1503355.864289267</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.383109450687021e-06</v>
+        <v>2.636420071608549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.36555989583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1272731.91232163</v>
+        <v>1359877.690574706</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>957.7487216311245</v>
+        <v>1016.567371803262</v>
       </c>
       <c r="AB7" t="n">
-        <v>1310.434053827244</v>
+        <v>1390.912325888469</v>
       </c>
       <c r="AC7" t="n">
-        <v>1185.368066935717</v>
+        <v>1258.165605663383</v>
       </c>
       <c r="AD7" t="n">
-        <v>957748.7216311245</v>
+        <v>1016567.371803262</v>
       </c>
       <c r="AE7" t="n">
-        <v>1310434.053827244</v>
+        <v>1390912.325888469</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.700673605476663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.09537760416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1185368.066935717</v>
+        <v>1258165.605663383</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>937.947299912965</v>
+        <v>996.7659500851022</v>
       </c>
       <c r="AB8" t="n">
-        <v>1283.340875055386</v>
+        <v>1363.819147116611</v>
       </c>
       <c r="AC8" t="n">
-        <v>1160.86062312033</v>
+        <v>1233.658161847996</v>
       </c>
       <c r="AD8" t="n">
-        <v>937947.299912965</v>
+        <v>996765.9500851022</v>
       </c>
       <c r="AE8" t="n">
-        <v>1283340.875055386</v>
+        <v>1363819.147116611</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422999409006416e-06</v>
+        <v>2.712456488478265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.04654947916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1160860.62312033</v>
+        <v>1233658.161847996</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>942.4736058031716</v>
+        <v>1001.292255975309</v>
       </c>
       <c r="AB9" t="n">
-        <v>1289.533966460889</v>
+        <v>1370.012238522115</v>
       </c>
       <c r="AC9" t="n">
-        <v>1166.462654574151</v>
+        <v>1239.260193301817</v>
       </c>
       <c r="AD9" t="n">
-        <v>942473.6058031716</v>
+        <v>1001292.255975309</v>
       </c>
       <c r="AE9" t="n">
-        <v>1289533.966460889</v>
+        <v>1370012.238522115</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422613065584437e-06</v>
+        <v>2.711720058290665e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0498046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1166462.654574151</v>
+        <v>1239260.193301817</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1052.78990567565</v>
+        <v>1126.034003113987</v>
       </c>
       <c r="AB2" t="n">
-        <v>1440.473594758083</v>
+        <v>1540.689400174739</v>
       </c>
       <c r="AC2" t="n">
-        <v>1302.996816591758</v>
+        <v>1393.648166193216</v>
       </c>
       <c r="AD2" t="n">
-        <v>1052789.90567565</v>
+        <v>1126034.003113987</v>
       </c>
       <c r="AE2" t="n">
-        <v>1440473.594758083</v>
+        <v>1540689.400174739</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27067602566795e-06</v>
+        <v>2.706207395028312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1302996.816591759</v>
+        <v>1393648.166193216</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>727.9369622503506</v>
+        <v>790.717617197496</v>
       </c>
       <c r="AB3" t="n">
-        <v>995.9954660631905</v>
+        <v>1081.894727848896</v>
       </c>
       <c r="AC3" t="n">
-        <v>900.9390566705351</v>
+        <v>978.6402134717844</v>
       </c>
       <c r="AD3" t="n">
-        <v>727936.9622503506</v>
+        <v>790717.617197496</v>
       </c>
       <c r="AE3" t="n">
-        <v>995995.4660631905</v>
+        <v>1081894.727848896</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511985917226096e-06</v>
+        <v>3.220134312540473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>900939.0566705351</v>
+        <v>978640.2134717844</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.4184989984547</v>
+        <v>790.1991539455998</v>
       </c>
       <c r="AB4" t="n">
-        <v>995.2860817689618</v>
+        <v>1081.185343554668</v>
       </c>
       <c r="AC4" t="n">
-        <v>900.2973750177206</v>
+        <v>977.9985318189698</v>
       </c>
       <c r="AD4" t="n">
-        <v>727418.4989984547</v>
+        <v>790199.1539455998</v>
       </c>
       <c r="AE4" t="n">
-        <v>995286.0817689619</v>
+        <v>1081185.343554668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.515542516789034e-06</v>
+        <v>3.22770893883699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.57389322916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>900297.3750177206</v>
+        <v>977998.5318189698</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1520.78205085738</v>
+        <v>1608.556419226982</v>
       </c>
       <c r="AB2" t="n">
-        <v>2080.801094152023</v>
+        <v>2200.89785728715</v>
       </c>
       <c r="AC2" t="n">
-        <v>1882.212358148831</v>
+        <v>1990.847254767207</v>
       </c>
       <c r="AD2" t="n">
-        <v>1520782.05085738</v>
+        <v>1608556.419226982</v>
       </c>
       <c r="AE2" t="n">
-        <v>2080801.094152023</v>
+        <v>2200897.85728715</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.078278726866672e-06</v>
+        <v>2.189278610635958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.56315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1882212.358148831</v>
+        <v>1990847.254767207</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>985.0891165951751</v>
+        <v>1050.834641526357</v>
       </c>
       <c r="AB3" t="n">
-        <v>1347.842388390156</v>
+        <v>1437.798316088853</v>
       </c>
       <c r="AC3" t="n">
-        <v>1219.206202550872</v>
+        <v>1300.576862763943</v>
       </c>
       <c r="AD3" t="n">
-        <v>985089.1165951751</v>
+        <v>1050834.641526357</v>
       </c>
       <c r="AE3" t="n">
-        <v>1347842.388390156</v>
+        <v>1437798.316088853</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.368624193959477e-06</v>
+        <v>2.778780290455317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.2607421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1219206.202550872</v>
+        <v>1300576.862763943</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>824.6818612626699</v>
+        <v>890.3420453392797</v>
       </c>
       <c r="AB4" t="n">
-        <v>1128.366104975564</v>
+        <v>1218.205265552062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1020.67642758847</v>
+        <v>1101.941464769601</v>
       </c>
       <c r="AD4" t="n">
-        <v>824681.8612626699</v>
+        <v>890342.0453392797</v>
       </c>
       <c r="AE4" t="n">
-        <v>1128366.104975564</v>
+        <v>1218205.265552063</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471832934215122e-06</v>
+        <v>2.988329715703605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.4013671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1020676.42758847</v>
+        <v>1101941.464769601</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>801.0797340486594</v>
+        <v>866.7399181252691</v>
       </c>
       <c r="AB5" t="n">
-        <v>1096.07263326899</v>
+        <v>1185.911793845489</v>
       </c>
       <c r="AC5" t="n">
-        <v>991.4649994973993</v>
+        <v>1072.730036678531</v>
       </c>
       <c r="AD5" t="n">
-        <v>801079.7340486593</v>
+        <v>866739.9181252691</v>
       </c>
       <c r="AE5" t="n">
-        <v>1096072.63326899</v>
+        <v>1185911.793845488</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.487298779408276e-06</v>
+        <v>3.019730728478074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>991464.9994973993</v>
+        <v>1072730.036678531</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.508367395917</v>
+        <v>829.7484446202999</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.192855415448</v>
+        <v>1135.298427847355</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.01374781093</v>
+        <v>1026.947139294954</v>
       </c>
       <c r="AD2" t="n">
-        <v>759508.3673959171</v>
+        <v>829748.4446202999</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039192.855415448</v>
+        <v>1135298.427847355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441152554705232e-06</v>
+        <v>3.209165247587722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6416015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>940013.74781093</v>
+        <v>1026947.139294954</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>672.313151191686</v>
+        <v>742.4678875614972</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.8885138233727</v>
+        <v>1015.877319133082</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.0956451357072</v>
+        <v>918.9234135877923</v>
       </c>
       <c r="AD3" t="n">
-        <v>672313.1511916859</v>
+        <v>742467.8875614972</v>
       </c>
       <c r="AE3" t="n">
-        <v>919888.5138233727</v>
+        <v>1015877.319133082</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52051388762065e-06</v>
+        <v>3.385887434814106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>832095.6451357072</v>
+        <v>918923.4135877923</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3034.087441937485</v>
+        <v>3164.651634686424</v>
       </c>
       <c r="AB2" t="n">
-        <v>4151.372292550066</v>
+        <v>4330.015981154832</v>
       </c>
       <c r="AC2" t="n">
-        <v>3755.171147436537</v>
+        <v>3916.765333128849</v>
       </c>
       <c r="AD2" t="n">
-        <v>3034087.441937485</v>
+        <v>3164651.634686423</v>
       </c>
       <c r="AE2" t="n">
-        <v>4151372.292550066</v>
+        <v>4330015.981154832</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.539725109826468e-07</v>
+        <v>1.425583830906315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3755171.147436537</v>
+        <v>3916765.33312885</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1595.683277384638</v>
+        <v>1678.738638331761</v>
       </c>
       <c r="AB3" t="n">
-        <v>2183.28425669552</v>
+        <v>2296.924265687295</v>
       </c>
       <c r="AC3" t="n">
-        <v>1974.914671495198</v>
+        <v>2077.709037523553</v>
       </c>
       <c r="AD3" t="n">
-        <v>1595683.277384638</v>
+        <v>1678738.638331761</v>
       </c>
       <c r="AE3" t="n">
-        <v>2183284.25669552</v>
+        <v>2296924.265687295</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10985289638743e-06</v>
+        <v>2.098469534005169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0380859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1974914.671495198</v>
+        <v>2077709.037523553</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1303.524826262953</v>
+        <v>1374.873549083075</v>
       </c>
       <c r="AB4" t="n">
-        <v>1783.540174749635</v>
+        <v>1881.162644995625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1613.321603685886</v>
+        <v>1701.627122385596</v>
       </c>
       <c r="AD4" t="n">
-        <v>1303524.826262953</v>
+        <v>1374873.549083075</v>
       </c>
       <c r="AE4" t="n">
-        <v>1783540.174749635</v>
+        <v>1881162.644995625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244049857209783e-06</v>
+        <v>2.352204271967675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52278645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1613321.603685886</v>
+        <v>1701627.122385596</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1162.898924934997</v>
+        <v>1234.162306900548</v>
       </c>
       <c r="AB5" t="n">
-        <v>1591.129612575813</v>
+        <v>1688.635315699606</v>
       </c>
       <c r="AC5" t="n">
-        <v>1439.274435516014</v>
+        <v>1527.474331183786</v>
       </c>
       <c r="AD5" t="n">
-        <v>1162898.924934997</v>
+        <v>1234162.306900548</v>
       </c>
       <c r="AE5" t="n">
-        <v>1591129.612575813</v>
+        <v>1688635.315699606</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.316221403900263e-06</v>
+        <v>2.488663610358351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1439274.435516014</v>
+        <v>1527474.331183786</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1085.431687287741</v>
+        <v>1156.5244770527</v>
       </c>
       <c r="AB6" t="n">
-        <v>1485.135520413516</v>
+        <v>1582.407811762462</v>
       </c>
       <c r="AC6" t="n">
-        <v>1343.396270746044</v>
+        <v>1431.385031131164</v>
       </c>
       <c r="AD6" t="n">
-        <v>1085431.687287741</v>
+        <v>1156524.4770527</v>
       </c>
       <c r="AE6" t="n">
-        <v>1485135.520413516</v>
+        <v>1582407.811762462</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358050271146603e-06</v>
+        <v>2.567752112847378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.47135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1343396.270746044</v>
+        <v>1431385.031131164</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1017.832435246137</v>
+        <v>1077.218676392647</v>
       </c>
       <c r="AB7" t="n">
-        <v>1392.643241501671</v>
+        <v>1473.89811657438</v>
       </c>
       <c r="AC7" t="n">
-        <v>1259.731325119816</v>
+        <v>1333.231348957519</v>
       </c>
       <c r="AD7" t="n">
-        <v>1017832.435246137</v>
+        <v>1077218.676392647</v>
       </c>
       <c r="AE7" t="n">
-        <v>1392643.241501671</v>
+        <v>1473898.11657438</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390307315224444e-06</v>
+        <v>2.628742559846924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.2060546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1259731.325119816</v>
+        <v>1333231.348957519</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>968.889048997263</v>
+        <v>1028.275290143773</v>
       </c>
       <c r="AB8" t="n">
-        <v>1325.676741206151</v>
+        <v>1406.93161627886</v>
       </c>
       <c r="AC8" t="n">
-        <v>1199.156013624428</v>
+        <v>1272.65603746213</v>
       </c>
       <c r="AD8" t="n">
-        <v>968889.048997263</v>
+        <v>1028275.290143773</v>
       </c>
       <c r="AE8" t="n">
-        <v>1325676.741206151</v>
+        <v>1406931.61627886</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408015188086166e-06</v>
+        <v>2.662223962502462e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.064453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1199156.013624428</v>
+        <v>1272656.03746213</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>964.1700050857623</v>
+        <v>1023.556246232273</v>
       </c>
       <c r="AB9" t="n">
-        <v>1319.219937136912</v>
+        <v>1400.474812209621</v>
       </c>
       <c r="AC9" t="n">
-        <v>1193.315437873375</v>
+        <v>1266.815461711078</v>
       </c>
       <c r="AD9" t="n">
-        <v>964170.0050857624</v>
+        <v>1023556.246232273</v>
       </c>
       <c r="AE9" t="n">
-        <v>1319219.937136912</v>
+        <v>1400474.812209621</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411078171500086e-06</v>
+        <v>2.668015340259095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0400390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1193315.437873375</v>
+        <v>1266815.461711078</v>
       </c>
     </row>
   </sheetData>
@@ -8339,28 +8339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.4549942100309</v>
+        <v>709.1672767728029</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.981219127244</v>
+        <v>970.3139543327279</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.0426606702254</v>
+        <v>877.7085523753999</v>
       </c>
       <c r="AD2" t="n">
-        <v>650454.9942100309</v>
+        <v>709167.2767728029</v>
       </c>
       <c r="AE2" t="n">
-        <v>889981.219127244</v>
+        <v>970313.9543327279</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508412867026722e-06</v>
+        <v>3.458137181478847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36002604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>805042.6606702254</v>
+        <v>877708.5523753999</v>
       </c>
     </row>
     <row r="3">
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.2708824889211</v>
+        <v>712.983165051693</v>
       </c>
       <c r="AB3" t="n">
-        <v>895.2022858155315</v>
+        <v>975.5350210210155</v>
       </c>
       <c r="AC3" t="n">
-        <v>809.7654360815956</v>
+        <v>882.4313277867702</v>
       </c>
       <c r="AD3" t="n">
-        <v>654270.8824889211</v>
+        <v>712983.1650516931</v>
       </c>
       <c r="AE3" t="n">
-        <v>895202.2858155315</v>
+        <v>975535.0210210155</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511620306294397e-06</v>
+        <v>3.465490450090741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.333984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>809765.4360815956</v>
+        <v>882431.3277867702</v>
       </c>
     </row>
   </sheetData>
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2073.775426052178</v>
+        <v>2176.333042052091</v>
       </c>
       <c r="AB2" t="n">
-        <v>2837.431026439451</v>
+        <v>2977.754881173225</v>
       </c>
       <c r="AC2" t="n">
-        <v>2566.630591635527</v>
+        <v>2693.562134619276</v>
       </c>
       <c r="AD2" t="n">
-        <v>2073775.426052178</v>
+        <v>2176333.042052091</v>
       </c>
       <c r="AE2" t="n">
-        <v>2837431.026439451</v>
+        <v>2977754.881173225</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.237825249345266e-07</v>
+        <v>1.81060098225798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2566630.591635527</v>
+        <v>2693562.134619276</v>
       </c>
     </row>
     <row r="3">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1243.231310275374</v>
+        <v>1311.603143783867</v>
       </c>
       <c r="AB3" t="n">
-        <v>1701.043926213234</v>
+        <v>1794.593285171965</v>
       </c>
       <c r="AC3" t="n">
-        <v>1538.698681325587</v>
+        <v>1623.319820762647</v>
       </c>
       <c r="AD3" t="n">
-        <v>1243231.310275374</v>
+        <v>1311603.143783867</v>
       </c>
       <c r="AE3" t="n">
-        <v>1701043.926213234</v>
+        <v>1794593.285171965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.245310192505727e-06</v>
+        <v>2.44079076720633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00618489583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1538698.681325587</v>
+        <v>1623319.820762647</v>
       </c>
     </row>
     <row r="4">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.877762146605</v>
+        <v>1111.474115104061</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.860677402983</v>
+        <v>1520.767919062634</v>
       </c>
       <c r="AC4" t="n">
-        <v>1277.114675910548</v>
+        <v>1375.627963278475</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031877.762146605</v>
+        <v>1111474.115104061</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411860.677402983</v>
+        <v>1520767.919062634</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363034497902425e-06</v>
+        <v>2.671528778841705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.88313802083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1277114.675910548</v>
+        <v>1375627.963278475</v>
       </c>
     </row>
     <row r="5">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>927.6627116600577</v>
+        <v>995.8638634594073</v>
       </c>
       <c r="AB5" t="n">
-        <v>1269.269047683747</v>
+        <v>1362.584872398082</v>
       </c>
       <c r="AC5" t="n">
-        <v>1148.131791203106</v>
+        <v>1232.541684576288</v>
       </c>
       <c r="AD5" t="n">
-        <v>927662.7116600577</v>
+        <v>995863.8634594074</v>
       </c>
       <c r="AE5" t="n">
-        <v>1269269.047683747</v>
+        <v>1362584.872398082</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425230348175406e-06</v>
+        <v>2.79343178583419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.36393229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1148131.791203106</v>
+        <v>1232541.684576288</v>
       </c>
     </row>
     <row r="6">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>871.4919310600513</v>
+        <v>928.4684739018875</v>
       </c>
       <c r="AB6" t="n">
-        <v>1192.413707586872</v>
+        <v>1270.371527130739</v>
       </c>
       <c r="AC6" t="n">
-        <v>1078.61141689793</v>
+        <v>1149.129051559017</v>
       </c>
       <c r="AD6" t="n">
-        <v>871491.9310600513</v>
+        <v>928468.4739018874</v>
       </c>
       <c r="AE6" t="n">
-        <v>1192413.707586872</v>
+        <v>1270371.527130739</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452795549016391e-06</v>
+        <v>2.84745919853326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.14908854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1078611.41689793</v>
+        <v>1149129.051559018</v>
       </c>
     </row>
     <row r="7">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.8296677619288</v>
+        <v>931.806210603765</v>
       </c>
       <c r="AB7" t="n">
-        <v>1196.980546192932</v>
+        <v>1274.938365736799</v>
       </c>
       <c r="AC7" t="n">
-        <v>1082.742402837026</v>
+        <v>1153.260037498113</v>
       </c>
       <c r="AD7" t="n">
-        <v>874829.6677619289</v>
+        <v>931806.210603765</v>
       </c>
       <c r="AE7" t="n">
-        <v>1196980.546192932</v>
+        <v>1274938.365736799</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453492142539448e-06</v>
+        <v>2.848824512211575e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.14420572916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1082742.402837025</v>
+        <v>1153260.037498113</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2521.343110373135</v>
+        <v>2626.156095275728</v>
       </c>
       <c r="AB2" t="n">
-        <v>3449.812877420261</v>
+        <v>3593.222627386544</v>
       </c>
       <c r="AC2" t="n">
-        <v>3120.567578241925</v>
+        <v>3250.290502948267</v>
       </c>
       <c r="AD2" t="n">
-        <v>2521343.110373135</v>
+        <v>2626156.095275728</v>
       </c>
       <c r="AE2" t="n">
-        <v>3449812.877420261</v>
+        <v>3593222.627386544</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.604741765159828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.013671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3120567.578241925</v>
+        <v>3250290.502948267</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1407.467058468253</v>
+        <v>1488.817607129693</v>
       </c>
       <c r="AB3" t="n">
-        <v>1925.758522460575</v>
+        <v>2037.06593207207</v>
       </c>
       <c r="AC3" t="n">
-        <v>1741.966831895999</v>
+        <v>1842.651218555103</v>
       </c>
       <c r="AD3" t="n">
-        <v>1407467.058468253</v>
+        <v>1488817.607129693</v>
       </c>
       <c r="AE3" t="n">
-        <v>1925758.522460575</v>
+        <v>2037065.93207207</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.175791899806333e-06</v>
+        <v>2.260698708652146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1741966.831895999</v>
+        <v>1842651.218555103</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1174.860336575654</v>
+        <v>1244.650348825661</v>
       </c>
       <c r="AB4" t="n">
-        <v>1607.495743682799</v>
+        <v>1702.9855173613</v>
       </c>
       <c r="AC4" t="n">
-        <v>1454.078606040158</v>
+        <v>1540.454969739522</v>
       </c>
       <c r="AD4" t="n">
-        <v>1174860.336575654</v>
+        <v>1244650.348825661</v>
       </c>
       <c r="AE4" t="n">
-        <v>1607495.743682799</v>
+        <v>1702985.5173613</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300011062286909e-06</v>
+        <v>2.499535275102335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1454078.606040158</v>
+        <v>1540454.969739522</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1048.362312811785</v>
+        <v>1118.237576407813</v>
       </c>
       <c r="AB5" t="n">
-        <v>1434.415566870131</v>
+        <v>1530.021985201281</v>
       </c>
       <c r="AC5" t="n">
-        <v>1297.516958382938</v>
+        <v>1383.998834333014</v>
       </c>
       <c r="AD5" t="n">
-        <v>1048362.312811785</v>
+        <v>1118237.576407813</v>
       </c>
       <c r="AE5" t="n">
-        <v>1434415.566870131</v>
+        <v>1530021.985201281</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367970839562389e-06</v>
+        <v>2.630201748270139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1297516.958382938</v>
+        <v>1383998.834333014</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>968.1549122549851</v>
+        <v>1037.859583650421</v>
       </c>
       <c r="AB6" t="n">
-        <v>1324.672262927539</v>
+        <v>1420.045269483843</v>
       </c>
       <c r="AC6" t="n">
-        <v>1198.247401342932</v>
+        <v>1284.518142010357</v>
       </c>
       <c r="AD6" t="n">
-        <v>968154.9122549851</v>
+        <v>1037859.58365042</v>
       </c>
       <c r="AE6" t="n">
-        <v>1324672.262927539</v>
+        <v>1420045.269483842</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410189754283024e-06</v>
+        <v>2.711376185690023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25325520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1198247.401342932</v>
+        <v>1284518.142010357</v>
       </c>
     </row>
     <row r="7">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>916.463122839169</v>
+        <v>974.692598677743</v>
       </c>
       <c r="AB7" t="n">
-        <v>1253.945276168019</v>
+        <v>1333.617413913526</v>
       </c>
       <c r="AC7" t="n">
-        <v>1134.270498933791</v>
+        <v>1206.338839673415</v>
       </c>
       <c r="AD7" t="n">
-        <v>916463.122839169</v>
+        <v>974692.598677743</v>
       </c>
       <c r="AE7" t="n">
-        <v>1253945.276168019</v>
+        <v>1333617.413913526</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.433785544958299e-06</v>
+        <v>2.756743885125616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.0693359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1134270.498933791</v>
+        <v>1206338.839673415</v>
       </c>
     </row>
     <row r="8">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>917.8897218301573</v>
+        <v>976.1191976687312</v>
       </c>
       <c r="AB8" t="n">
-        <v>1255.897211844595</v>
+        <v>1335.569349590102</v>
       </c>
       <c r="AC8" t="n">
-        <v>1136.036144608953</v>
+        <v>1208.104485348577</v>
       </c>
       <c r="AD8" t="n">
-        <v>917889.7218301573</v>
+        <v>976119.1976687312</v>
       </c>
       <c r="AE8" t="n">
-        <v>1255897.211844595</v>
+        <v>1335569.349590102</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.433005518820273e-06</v>
+        <v>2.755244126466589e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1136036.144608954</v>
+        <v>1208104.485348577</v>
       </c>
     </row>
   </sheetData>
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3658.099903820666</v>
+        <v>3803.128828238529</v>
       </c>
       <c r="AB2" t="n">
-        <v>5005.173672385567</v>
+        <v>5203.608644998681</v>
       </c>
       <c r="AC2" t="n">
-        <v>4527.48692189827</v>
+        <v>4706.983539230413</v>
       </c>
       <c r="AD2" t="n">
-        <v>3658099.903820666</v>
+        <v>3803128.828238529</v>
       </c>
       <c r="AE2" t="n">
-        <v>5005173.672385568</v>
+        <v>5203608.644998681</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.802444635220913e-07</v>
+        <v>1.267243841431492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.51627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4527486.92189827</v>
+        <v>4706983.539230413</v>
       </c>
     </row>
     <row r="3">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1780.618708081741</v>
+        <v>1877.276210742125</v>
       </c>
       <c r="AB3" t="n">
-        <v>2436.321071750679</v>
+        <v>2568.572131118681</v>
       </c>
       <c r="AC3" t="n">
-        <v>2203.802008060894</v>
+        <v>2323.431211938341</v>
       </c>
       <c r="AD3" t="n">
-        <v>1780618.708081741</v>
+        <v>1877276.210742125</v>
       </c>
       <c r="AE3" t="n">
-        <v>2436321.07175068</v>
+        <v>2568572.131118681</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049447428435921e-06</v>
+        <v>1.955040962341251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2203802.008060894</v>
+        <v>2323431.211938341</v>
       </c>
     </row>
     <row r="4">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1437.278544280808</v>
+        <v>1521.843191501823</v>
       </c>
       <c r="AB4" t="n">
-        <v>1966.547912539245</v>
+        <v>2082.252993595972</v>
       </c>
       <c r="AC4" t="n">
-        <v>1778.863339833829</v>
+        <v>1883.525690347603</v>
       </c>
       <c r="AD4" t="n">
-        <v>1437278.544280808</v>
+        <v>1521843.191501823</v>
       </c>
       <c r="AE4" t="n">
-        <v>1966547.912539245</v>
+        <v>2082252.993595972</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19061603597371e-06</v>
+        <v>2.218027371050055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8662109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1778863.339833829</v>
+        <v>1883525.690347603</v>
       </c>
     </row>
     <row r="5">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1294.477974744696</v>
+        <v>1366.949856034893</v>
       </c>
       <c r="AB5" t="n">
-        <v>1771.161873383435</v>
+        <v>1870.321098598435</v>
       </c>
       <c r="AC5" t="n">
-        <v>1602.124670029021</v>
+        <v>1691.820277960348</v>
       </c>
       <c r="AD5" t="n">
-        <v>1294477.974744696</v>
+        <v>1366949.856034893</v>
       </c>
       <c r="AE5" t="n">
-        <v>1771161.873383435</v>
+        <v>1870321.098598435</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265623622778788e-06</v>
+        <v>2.357760816210667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1602124.670029021</v>
+        <v>1691820.277960348</v>
       </c>
     </row>
     <row r="6">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1194.667085839769</v>
+        <v>1267.224218475986</v>
       </c>
       <c r="AB6" t="n">
-        <v>1634.596211838067</v>
+        <v>1733.872081705717</v>
       </c>
       <c r="AC6" t="n">
-        <v>1478.592643550433</v>
+        <v>1568.393763732473</v>
       </c>
       <c r="AD6" t="n">
-        <v>1194667.085839769</v>
+        <v>1267224.218475986</v>
       </c>
       <c r="AE6" t="n">
-        <v>1634596.211838067</v>
+        <v>1733872.081705717</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.311738701241133e-06</v>
+        <v>2.443669709722209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.67805989583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1478592.643550433</v>
+        <v>1568393.763732473</v>
       </c>
     </row>
     <row r="7">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1128.4702429363</v>
+        <v>1200.856783371924</v>
       </c>
       <c r="AB7" t="n">
-        <v>1544.022770978944</v>
+        <v>1643.065229071746</v>
       </c>
       <c r="AC7" t="n">
-        <v>1396.663404766282</v>
+        <v>1486.253389665671</v>
       </c>
       <c r="AD7" t="n">
-        <v>1128470.2429363</v>
+        <v>1200856.783371924</v>
       </c>
       <c r="AE7" t="n">
-        <v>1544022.770978944</v>
+        <v>1643065.229071746</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3444898181899e-06</v>
+        <v>2.504682556542652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1396663.404766282</v>
+        <v>1486253.38966567</v>
       </c>
     </row>
     <row r="8">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1061.186639075104</v>
+        <v>1121.651005780502</v>
       </c>
       <c r="AB8" t="n">
-        <v>1451.962375832948</v>
+        <v>1534.692389858871</v>
       </c>
       <c r="AC8" t="n">
-        <v>1313.389124525444</v>
+        <v>1388.223502125037</v>
       </c>
       <c r="AD8" t="n">
-        <v>1061186.639075104</v>
+        <v>1121651.005780502</v>
       </c>
       <c r="AE8" t="n">
-        <v>1451962.375832948</v>
+        <v>1534692.389858871</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.376017473873339e-06</v>
+        <v>2.563416187820952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.13118489583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1313389.124525444</v>
+        <v>1388223.502125037</v>
       </c>
     </row>
     <row r="9">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1025.154475923541</v>
+        <v>1085.61884262894</v>
       </c>
       <c r="AB9" t="n">
-        <v>1402.661580582133</v>
+        <v>1485.391594608055</v>
       </c>
       <c r="AC9" t="n">
-        <v>1268.793527979266</v>
+        <v>1343.627905578858</v>
       </c>
       <c r="AD9" t="n">
-        <v>1025154.475923541</v>
+        <v>1085618.84262894</v>
       </c>
       <c r="AE9" t="n">
-        <v>1402661.580582133</v>
+        <v>1485391.594608055</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385711051590934e-06</v>
+        <v>2.581474587885623e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1268793.527979266</v>
+        <v>1343627.905578858</v>
       </c>
     </row>
     <row r="10">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1009.592076502962</v>
+        <v>1070.05644320836</v>
       </c>
       <c r="AB10" t="n">
-        <v>1381.368419130288</v>
+        <v>1464.098433156211</v>
       </c>
       <c r="AC10" t="n">
-        <v>1249.532555971246</v>
+        <v>1324.366933570838</v>
       </c>
       <c r="AD10" t="n">
-        <v>1009592.076502961</v>
+        <v>1070056.44320836</v>
       </c>
       <c r="AE10" t="n">
-        <v>1381368.419130288</v>
+        <v>1464098.433156211</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391640133107521e-06</v>
+        <v>2.592520017051393e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.00748697916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1249532.555971246</v>
+        <v>1324366.933570838</v>
       </c>
     </row>
     <row r="11">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1013.840601439242</v>
+        <v>1074.30496814464</v>
       </c>
       <c r="AB11" t="n">
-        <v>1387.181438379798</v>
+        <v>1469.911452405721</v>
       </c>
       <c r="AC11" t="n">
-        <v>1254.790788822206</v>
+        <v>1329.625166421799</v>
       </c>
       <c r="AD11" t="n">
-        <v>1013840.601439242</v>
+        <v>1074304.96814464</v>
       </c>
       <c r="AE11" t="n">
-        <v>1387181.438379799</v>
+        <v>1469911.452405721</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.39126368348742e-06</v>
+        <v>2.591818719961502e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.0107421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1254790.788822206</v>
+        <v>1329625.166421799</v>
       </c>
     </row>
   </sheetData>
@@ -11753,28 +11753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1698.271891486882</v>
+        <v>1787.150508053734</v>
       </c>
       <c r="AB2" t="n">
-        <v>2323.650524400442</v>
+        <v>2445.258168635038</v>
       </c>
       <c r="AC2" t="n">
-        <v>2101.884579615657</v>
+        <v>2211.886160961903</v>
       </c>
       <c r="AD2" t="n">
-        <v>1698271.891486882</v>
+        <v>1787150.508053734</v>
       </c>
       <c r="AE2" t="n">
-        <v>2323650.524400441</v>
+        <v>2445258.168635038</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02303939221509e-06</v>
+        <v>2.050679755719494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2101884.579615657</v>
+        <v>2211886.160961903</v>
       </c>
     </row>
     <row r="3">
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1068.491030403675</v>
+        <v>1135.299272192901</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.956566295701</v>
+        <v>1553.366550083333</v>
       </c>
       <c r="AC3" t="n">
-        <v>1322.429483477366</v>
+        <v>1405.115426707024</v>
       </c>
       <c r="AD3" t="n">
-        <v>1068491.030403675</v>
+        <v>1135299.272192901</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461956.566295701</v>
+        <v>1553366.550083333</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32431064635168e-06</v>
+        <v>2.654577187763083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1322429.483477366</v>
+        <v>1405115.426707024</v>
       </c>
     </row>
     <row r="4">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>897.4743342895052</v>
+        <v>964.1972352241598</v>
       </c>
       <c r="AB4" t="n">
-        <v>1227.963977948143</v>
+        <v>1319.257194613576</v>
       </c>
       <c r="AC4" t="n">
-        <v>1110.768819351038</v>
+        <v>1193.349139548758</v>
       </c>
       <c r="AD4" t="n">
-        <v>897474.3342895053</v>
+        <v>964197.2352241598</v>
       </c>
       <c r="AE4" t="n">
-        <v>1227963.977948143</v>
+        <v>1319257.194613576</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432132970829763e-06</v>
+        <v>2.87070675198551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1110768.819351038</v>
+        <v>1193349.139548758</v>
       </c>
     </row>
     <row r="5">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>824.0562071391591</v>
+        <v>890.6085158732212</v>
       </c>
       <c r="AB5" t="n">
-        <v>1127.510057401865</v>
+        <v>1218.569862292451</v>
       </c>
       <c r="AC5" t="n">
-        <v>1019.902079993734</v>
+        <v>1102.271264908803</v>
       </c>
       <c r="AD5" t="n">
-        <v>824056.2071391591</v>
+        <v>890608.5158732212</v>
       </c>
       <c r="AE5" t="n">
-        <v>1127510.057401865</v>
+        <v>1218569.862292451</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.475608072389859e-06</v>
+        <v>2.957852478069529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.23046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1019902.079993734</v>
+        <v>1102271.264908802</v>
       </c>
     </row>
     <row r="6">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>827.3109680348954</v>
+        <v>893.8632767689575</v>
       </c>
       <c r="AB6" t="n">
-        <v>1131.963364849327</v>
+        <v>1223.023169739915</v>
       </c>
       <c r="AC6" t="n">
-        <v>1023.930370028668</v>
+        <v>1106.299554943736</v>
       </c>
       <c r="AD6" t="n">
-        <v>827310.9680348954</v>
+        <v>893863.2767689575</v>
       </c>
       <c r="AE6" t="n">
-        <v>1131963.364849327</v>
+        <v>1223023.169739915</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476626224651219e-06</v>
+        <v>2.959893361584378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.22233072916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1023930.370028668</v>
+        <v>1106299.554943736</v>
       </c>
     </row>
   </sheetData>
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1206.228752463641</v>
+        <v>1280.660244165724</v>
       </c>
       <c r="AB2" t="n">
-        <v>1650.415394177582</v>
+        <v>1752.255844810036</v>
       </c>
       <c r="AC2" t="n">
-        <v>1492.902065329827</v>
+        <v>1585.02300628789</v>
       </c>
       <c r="AD2" t="n">
-        <v>1206228.752463641</v>
+        <v>1280660.244165724</v>
       </c>
       <c r="AE2" t="n">
-        <v>1650415.394177582</v>
+        <v>1752255.844810036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200785451257035e-06</v>
+        <v>2.512118258650526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1492902.065329827</v>
+        <v>1585023.00628789</v>
       </c>
     </row>
     <row r="3">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.7594397882289</v>
+        <v>870.6309338294612</v>
       </c>
       <c r="AB3" t="n">
-        <v>1103.843857232802</v>
+        <v>1191.235653191462</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.4945487530864</v>
+        <v>1077.545794360608</v>
       </c>
       <c r="AD3" t="n">
-        <v>806759.4397882288</v>
+        <v>870630.9338294612</v>
       </c>
       <c r="AE3" t="n">
-        <v>1103843.857232802</v>
+        <v>1191235.653191462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464444931192116e-06</v>
+        <v>3.063710379389371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.787109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>998494.5487530864</v>
+        <v>1077545.794360608</v>
       </c>
     </row>
     <row r="4">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>749.6510468911659</v>
+        <v>813.3519487318059</v>
       </c>
       <c r="AB4" t="n">
-        <v>1025.705634626559</v>
+        <v>1112.864018810372</v>
       </c>
       <c r="AC4" t="n">
-        <v>927.8137284446991</v>
+        <v>1006.653838769569</v>
       </c>
       <c r="AD4" t="n">
-        <v>749651.0468911659</v>
+        <v>813351.9487318059</v>
       </c>
       <c r="AE4" t="n">
-        <v>1025705.634626559</v>
+        <v>1112864.018810372</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508458882991415e-06</v>
+        <v>3.155790319094367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44368489583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>927813.7284446991</v>
+        <v>1006653.838769569</v>
       </c>
     </row>
   </sheetData>
@@ -22812,28 +22812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.7924102852546</v>
+        <v>984.4795145049205</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.922845311345</v>
+        <v>1347.008303916524</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.727401829052</v>
+        <v>1218.451721928759</v>
       </c>
       <c r="AD2" t="n">
-        <v>912792.4102852546</v>
+        <v>984479.5145049206</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248922.845311345</v>
+        <v>1347008.303916524</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349236003637322e-06</v>
+        <v>2.933044471405555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129727.401829052</v>
+        <v>1218451.721928759</v>
       </c>
     </row>
     <row r="3">
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.3653003812457</v>
+        <v>758.9576115986096</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.1659695673478</v>
+        <v>1038.439287035941</v>
       </c>
       <c r="AC3" t="n">
-        <v>863.1017086121884</v>
+        <v>939.3320989399235</v>
       </c>
       <c r="AD3" t="n">
-        <v>697365.3003812457</v>
+        <v>758957.6115986096</v>
       </c>
       <c r="AE3" t="n">
-        <v>954165.9695673478</v>
+        <v>1038439.287035941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521264142660198e-06</v>
+        <v>3.307008833998165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>863101.7086121885</v>
+        <v>939332.0989399236</v>
       </c>
     </row>
   </sheetData>
@@ -23215,28 +23215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.0767410080522</v>
+        <v>684.5780415407645</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.6798646685785</v>
+        <v>936.6698778877559</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.9693653037534</v>
+        <v>847.2754193665781</v>
       </c>
       <c r="AD2" t="n">
-        <v>618076.7410080521</v>
+        <v>684578.0415407645</v>
       </c>
       <c r="AE2" t="n">
-        <v>845679.8646685785</v>
+        <v>936669.8778877559</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476991610931789e-06</v>
+        <v>3.513064371498631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.97688802083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>764969.3653037534</v>
+        <v>847275.4193665781</v>
       </c>
     </row>
   </sheetData>
@@ -23512,28 +23512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2287.514485734581</v>
+        <v>2391.138541098943</v>
       </c>
       <c r="AB2" t="n">
-        <v>3129.878237398908</v>
+        <v>3271.661241519113</v>
       </c>
       <c r="AC2" t="n">
-        <v>2831.167051233134</v>
+        <v>2959.418484433797</v>
       </c>
       <c r="AD2" t="n">
-        <v>2287514.485734581</v>
+        <v>2391138.541098943</v>
       </c>
       <c r="AE2" t="n">
-        <v>3129878.237398908</v>
+        <v>3271661.241519114</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.784115424843878e-07</v>
+        <v>1.704626285571303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.2470703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2831167.051233134</v>
+        <v>2959418.484433797</v>
       </c>
     </row>
     <row r="3">
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1323.511881508285</v>
+        <v>1404.004083415768</v>
       </c>
       <c r="AB3" t="n">
-        <v>1810.887345502944</v>
+        <v>1921.020327218088</v>
       </c>
       <c r="AC3" t="n">
-        <v>1638.058798844495</v>
+        <v>1737.680843357356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1323511.881508285</v>
+        <v>1404004.083415768</v>
       </c>
       <c r="AE3" t="n">
-        <v>1810887.345502944</v>
+        <v>1921020.327218088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210376263304441e-06</v>
+        <v>2.348829784300099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1638058.798844495</v>
+        <v>1737680.843357356</v>
       </c>
     </row>
     <row r="4">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1109.068678018308</v>
+        <v>1178.122964479209</v>
       </c>
       <c r="AB4" t="n">
-        <v>1517.476693921512</v>
+        <v>1611.959815117427</v>
       </c>
       <c r="AC4" t="n">
-        <v>1372.650848045559</v>
+        <v>1458.116632762429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1109068.678018308</v>
+        <v>1178122.964479209</v>
       </c>
       <c r="AE4" t="n">
-        <v>1517476.693921512</v>
+        <v>1611959.815117427</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331010135450559e-06</v>
+        <v>2.582929246163871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.04264322916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1372650.848045559</v>
+        <v>1458116.632762429</v>
       </c>
     </row>
     <row r="5">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>988.7775617281549</v>
+        <v>1057.746507334484</v>
       </c>
       <c r="AB5" t="n">
-        <v>1352.889081743814</v>
+        <v>1447.255435817531</v>
       </c>
       <c r="AC5" t="n">
-        <v>1223.771246573936</v>
+        <v>1309.131408258867</v>
       </c>
       <c r="AD5" t="n">
-        <v>988777.5617281549</v>
+        <v>1057746.507334484</v>
       </c>
       <c r="AE5" t="n">
-        <v>1352889.081743814</v>
+        <v>1447255.435817531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395512328312361e-06</v>
+        <v>2.708100795160419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48600260416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1223771.246573935</v>
+        <v>1309131.408258867</v>
       </c>
     </row>
     <row r="6">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>910.1180925741292</v>
+        <v>967.7344635884481</v>
       </c>
       <c r="AB6" t="n">
-        <v>1245.263725836413</v>
+        <v>1324.096986513097</v>
       </c>
       <c r="AC6" t="n">
-        <v>1126.4175035812</v>
+        <v>1197.727028502079</v>
       </c>
       <c r="AD6" t="n">
-        <v>910118.0925741291</v>
+        <v>967734.4635884481</v>
       </c>
       <c r="AE6" t="n">
-        <v>1245263.725836413</v>
+        <v>1324096.986513097</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43677403641785e-06</v>
+        <v>2.788172366197905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.15559895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1126417.5035812</v>
+        <v>1197727.028502079</v>
       </c>
     </row>
     <row r="7">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>895.4287627822895</v>
+        <v>953.0451337966084</v>
       </c>
       <c r="AB7" t="n">
-        <v>1225.165136767724</v>
+        <v>1303.998397444409</v>
       </c>
       <c r="AC7" t="n">
-        <v>1108.237095644681</v>
+        <v>1179.54662056556</v>
       </c>
       <c r="AD7" t="n">
-        <v>895428.7627822895</v>
+        <v>953045.1337966084</v>
       </c>
       <c r="AE7" t="n">
-        <v>1225165.136767724</v>
+        <v>1303998.397444409</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442288727715958e-06</v>
+        <v>2.798874055883106e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1108237.095644681</v>
+        <v>1179546.620565559</v>
       </c>
     </row>
     <row r="8">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>900.0758743260182</v>
+        <v>957.692245340337</v>
       </c>
       <c r="AB8" t="n">
-        <v>1231.523519797945</v>
+        <v>1310.35678047463</v>
       </c>
       <c r="AC8" t="n">
-        <v>1113.988643522545</v>
+        <v>1185.298168443423</v>
       </c>
       <c r="AD8" t="n">
-        <v>900075.8743260182</v>
+        <v>957692.2453403369</v>
       </c>
       <c r="AE8" t="n">
-        <v>1231523.519797945</v>
+        <v>1310356.78047463</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442091774455311e-06</v>
+        <v>2.798491852680062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.11490885416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1113988.643522545</v>
+        <v>1185298.168443423</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3332.171931753222</v>
+        <v>3464.027069498591</v>
       </c>
       <c r="AB2" t="n">
-        <v>4559.224642075552</v>
+        <v>4739.634658576909</v>
       </c>
       <c r="AC2" t="n">
-        <v>4124.098641147663</v>
+        <v>4287.290578881171</v>
       </c>
       <c r="AD2" t="n">
-        <v>3332171.931753222</v>
+        <v>3464027.069498591</v>
       </c>
       <c r="AE2" t="n">
-        <v>4559224.642075552</v>
+        <v>4739634.658576909</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.162690803402524e-07</v>
+        <v>1.344001736398402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4124098.641147663</v>
+        <v>4287290.578881172</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1687.137303492397</v>
+        <v>1770.959867075247</v>
       </c>
       <c r="AB3" t="n">
-        <v>2308.415689883033</v>
+        <v>2423.105419367604</v>
       </c>
       <c r="AC3" t="n">
-        <v>2088.103736322365</v>
+        <v>2191.847638992975</v>
       </c>
       <c r="AD3" t="n">
-        <v>1687137.303492397</v>
+        <v>1770959.867075247</v>
       </c>
       <c r="AE3" t="n">
-        <v>2308415.689883033</v>
+        <v>2423105.419367604</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078958590814609e-06</v>
+        <v>2.0245495154809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.31477864583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2088103.736322365</v>
+        <v>2191847.638992975</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1369.503724963108</v>
+        <v>1453.326199037407</v>
       </c>
       <c r="AB4" t="n">
-        <v>1873.815414734764</v>
+        <v>1988.505021749786</v>
       </c>
       <c r="AC4" t="n">
-        <v>1694.98110146893</v>
+        <v>1798.724893358312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1369503.724963108</v>
+        <v>1453326.199037407</v>
       </c>
       <c r="AE4" t="n">
-        <v>1873815.414734764</v>
+        <v>1988505.021749786</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21722091859094e-06</v>
+        <v>2.283983872917634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1694981.10146893</v>
+        <v>1798724.893358312</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1225.358663949881</v>
+        <v>1309.095797169608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1676.589783025187</v>
+        <v>1791.162622918011</v>
       </c>
       <c r="AC5" t="n">
-        <v>1516.578407241802</v>
+        <v>1620.216576099246</v>
       </c>
       <c r="AD5" t="n">
-        <v>1225358.663949881</v>
+        <v>1309095.797169609</v>
       </c>
       <c r="AE5" t="n">
-        <v>1676589.783025187</v>
+        <v>1791162.622918011</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288582120023885e-06</v>
+        <v>2.417885476755949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1516578.407241802</v>
+        <v>1620216.576099246</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1139.128341696494</v>
+        <v>1211.049325921241</v>
       </c>
       <c r="AB6" t="n">
-        <v>1558.605651904773</v>
+        <v>1657.011115450962</v>
       </c>
       <c r="AC6" t="n">
-        <v>1409.854516003753</v>
+        <v>1498.868300222028</v>
       </c>
       <c r="AD6" t="n">
-        <v>1139128.341696494</v>
+        <v>1211049.32592124</v>
       </c>
       <c r="AE6" t="n">
-        <v>1558605.651904773</v>
+        <v>1657011.115450962</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.335650146500934e-06</v>
+        <v>2.506203555883348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.56412760416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1409854.516003753</v>
+        <v>1498868.300222028</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1072.426604770768</v>
+        <v>1144.176996794923</v>
       </c>
       <c r="AB7" t="n">
-        <v>1467.341392770046</v>
+        <v>1565.513444541388</v>
       </c>
       <c r="AC7" t="n">
-        <v>1327.300389670651</v>
+        <v>1416.103038606276</v>
       </c>
       <c r="AD7" t="n">
-        <v>1072426.604770768</v>
+        <v>1144176.996794923</v>
       </c>
       <c r="AE7" t="n">
-        <v>1467341.392770046</v>
+        <v>1565513.444541388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366870672127848e-06</v>
+        <v>2.564785507562611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.298828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1327300.389670651</v>
+        <v>1416103.038606277</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1026.821776415215</v>
+        <v>1086.756019444388</v>
       </c>
       <c r="AB8" t="n">
-        <v>1404.942854670946</v>
+        <v>1486.947530095652</v>
       </c>
       <c r="AC8" t="n">
-        <v>1270.857080470831</v>
+        <v>1345.035344767288</v>
       </c>
       <c r="AD8" t="n">
-        <v>1026821.776415215</v>
+        <v>1086756.019444388</v>
       </c>
       <c r="AE8" t="n">
-        <v>1404942.854670946</v>
+        <v>1486947.530095652</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383667125124698e-06</v>
+        <v>2.596302241444767e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.162109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1270857.080470831</v>
+        <v>1345035.344767288</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>984.0944812041819</v>
+        <v>1044.028724233355</v>
       </c>
       <c r="AB9" t="n">
-        <v>1346.481484367983</v>
+        <v>1428.486159792688</v>
       </c>
       <c r="AC9" t="n">
-        <v>1217.975181298534</v>
+        <v>1292.153445594991</v>
       </c>
       <c r="AD9" t="n">
-        <v>984094.4812041819</v>
+        <v>1044028.724233355</v>
       </c>
       <c r="AE9" t="n">
-        <v>1346481.484367983</v>
+        <v>1428486.159792688</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.401697215912277e-06</v>
+        <v>2.63013376369115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.01888020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1217975.181298534</v>
+        <v>1292153.445594991</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>988.7347417571586</v>
+        <v>1048.668984786332</v>
       </c>
       <c r="AB10" t="n">
-        <v>1352.830493570413</v>
+        <v>1434.835168995119</v>
       </c>
       <c r="AC10" t="n">
-        <v>1223.718249973575</v>
+        <v>1297.896514270032</v>
       </c>
       <c r="AD10" t="n">
-        <v>988734.7417571587</v>
+        <v>1048668.984786332</v>
       </c>
       <c r="AE10" t="n">
-        <v>1352830.493570413</v>
+        <v>1434835.168995119</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401127844624248e-06</v>
+        <v>2.629065399830738e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.02376302083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1223718.249973575</v>
+        <v>1297896.514270032</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.4262622849885</v>
+        <v>667.4623616816017</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.6344333461781</v>
+        <v>913.2514496139457</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.8370418128231</v>
+        <v>826.0920130192497</v>
       </c>
       <c r="AD2" t="n">
-        <v>603426.2622849885</v>
+        <v>667462.3616816017</v>
       </c>
       <c r="AE2" t="n">
-        <v>825634.433346178</v>
+        <v>913251.4496139458</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.382496668621621e-06</v>
+        <v>3.457519251197963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>746837.0418128232</v>
+        <v>826092.0130192498</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1355.33531481753</v>
+        <v>1441.761549757702</v>
       </c>
       <c r="AB2" t="n">
-        <v>1854.429570907444</v>
+        <v>1972.681758408975</v>
       </c>
       <c r="AC2" t="n">
-        <v>1677.445415368286</v>
+        <v>1784.411780062659</v>
       </c>
       <c r="AD2" t="n">
-        <v>1355335.31481753</v>
+        <v>1441761.549757702</v>
       </c>
       <c r="AE2" t="n">
-        <v>1854429.570907444</v>
+        <v>1972681.758408975</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136566222838845e-06</v>
+        <v>2.340512021749014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.9658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1677445.415368286</v>
+        <v>1784411.780062659</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>904.4005485364108</v>
+        <v>969.1989790364477</v>
       </c>
       <c r="AB3" t="n">
-        <v>1237.440729843765</v>
+        <v>1326.100801158912</v>
       </c>
       <c r="AC3" t="n">
-        <v>1119.341123346448</v>
+        <v>1199.539601890469</v>
       </c>
       <c r="AD3" t="n">
-        <v>904400.5485364108</v>
+        <v>969198.9790364477</v>
       </c>
       <c r="AE3" t="n">
-        <v>1237440.729843765</v>
+        <v>1326100.801158912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4134180779469e-06</v>
+        <v>2.910628467322637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03450520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1119341.123346448</v>
+        <v>1199539.601890469</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>776.0126501246359</v>
+        <v>840.7257397701012</v>
       </c>
       <c r="AB4" t="n">
-        <v>1061.774743162448</v>
+        <v>1150.318047355397</v>
       </c>
       <c r="AC4" t="n">
-        <v>960.4404518852341</v>
+        <v>1040.533307397316</v>
       </c>
       <c r="AD4" t="n">
-        <v>776012.6501246359</v>
+        <v>840725.7397701012</v>
       </c>
       <c r="AE4" t="n">
-        <v>1061774.743162448</v>
+        <v>1150318.047355397</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.49681852354004e-06</v>
+        <v>3.082373625332357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>960440.4518852341</v>
+        <v>1040533.307397316</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>778.9218836317978</v>
+        <v>843.6349732772632</v>
       </c>
       <c r="AB5" t="n">
-        <v>1065.755284793271</v>
+        <v>1154.29858898622</v>
       </c>
       <c r="AC5" t="n">
-        <v>964.0410962095368</v>
+        <v>1044.133951721619</v>
       </c>
       <c r="AD5" t="n">
-        <v>778921.8836317977</v>
+        <v>843634.9732772631</v>
       </c>
       <c r="AE5" t="n">
-        <v>1065755.284793271</v>
+        <v>1154298.58898622</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4982816892522e-06</v>
+        <v>3.085386698279896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>964041.0962095368</v>
+        <v>1044133.951721619</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1874.173745817749</v>
+        <v>1975.44017092214</v>
       </c>
       <c r="AB2" t="n">
-        <v>2564.327201738057</v>
+        <v>2702.884392125255</v>
       </c>
       <c r="AC2" t="n">
-        <v>2319.591412660009</v>
+        <v>2444.92489926289</v>
       </c>
       <c r="AD2" t="n">
-        <v>1874173.745817749</v>
+        <v>1975440.17092214</v>
       </c>
       <c r="AE2" t="n">
-        <v>2564327.201738057</v>
+        <v>2702884.392125255</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.719126995389592e-07</v>
+        <v>1.925537998366543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8505859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2319591.412660009</v>
+        <v>2444924.89926289</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1148.290514466744</v>
+        <v>1227.034324913587</v>
       </c>
       <c r="AB3" t="n">
-        <v>1571.141740895564</v>
+        <v>1678.882496280675</v>
       </c>
       <c r="AC3" t="n">
-        <v>1421.194178255774</v>
+        <v>1518.652307162029</v>
       </c>
       <c r="AD3" t="n">
-        <v>1148290.514466744</v>
+        <v>1227034.324913587</v>
       </c>
       <c r="AE3" t="n">
-        <v>1571141.740895564</v>
+        <v>1678882.496280675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.284748043038972e-06</v>
+        <v>2.545322410512892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.74739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1421194.178255774</v>
+        <v>1518652.307162029</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>963.964967105919</v>
+        <v>1031.53281107856</v>
       </c>
       <c r="AB4" t="n">
-        <v>1318.939395127253</v>
+        <v>1411.388700133517</v>
       </c>
       <c r="AC4" t="n">
-        <v>1193.061670399375</v>
+        <v>1276.687743489255</v>
       </c>
       <c r="AD4" t="n">
-        <v>963964.9671059189</v>
+        <v>1031532.81107856</v>
       </c>
       <c r="AE4" t="n">
-        <v>1318939.395127253</v>
+        <v>1411388.700133517</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.397646484790987e-06</v>
+        <v>2.768995009557023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1193061.670399375</v>
+        <v>1276687.743489255</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>864.309557447706</v>
+        <v>931.7068092197551</v>
       </c>
       <c r="AB5" t="n">
-        <v>1182.586467146501</v>
+        <v>1274.802360377917</v>
       </c>
       <c r="AC5" t="n">
-        <v>1069.722074492569</v>
+        <v>1153.137012299798</v>
       </c>
       <c r="AD5" t="n">
-        <v>864309.557447706</v>
+        <v>931706.8092197551</v>
       </c>
       <c r="AE5" t="n">
-        <v>1182586.4671465</v>
+        <v>1274802.360377917</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.456007533111993e-06</v>
+        <v>2.88461899123759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.24837239583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1069722.074492569</v>
+        <v>1153137.012299798</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>846.1702476003197</v>
+        <v>902.4768737527386</v>
       </c>
       <c r="AB6" t="n">
-        <v>1157.767463163435</v>
+        <v>1234.808673138203</v>
       </c>
       <c r="AC6" t="n">
-        <v>1047.271761415956</v>
+        <v>1116.96026643875</v>
       </c>
       <c r="AD6" t="n">
-        <v>846170.2476003197</v>
+        <v>902476.8737527386</v>
       </c>
       <c r="AE6" t="n">
-        <v>1157767.463163435</v>
+        <v>1234808.673138203</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466572895308037e-06</v>
+        <v>2.905550918955624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.1669921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1047271.761415956</v>
+        <v>1116960.26643875</v>
       </c>
     </row>
   </sheetData>
